--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Enhanced FHIR R5 Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,7 +524,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|5.0.0|ActivityDefinition|5.0.0|Measure|5.0.0|OperationDefinition|5.0.0|Questionnaire|5.0.0)
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(Procedure|5.0.0|Observation|5.0.0|MedicationAdministration|5.0.0)
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -726,7 +726,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Practitioner|Organization|Location)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Group|5.0.0|Device|5.0.0|Practitioner|5.0.0|Organization|5.0.0|Location|5.0.0)
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>Procedure.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|RelatedPerson|Practitioner|Organization|CareTeam|PractitionerRole|Specimen)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Group|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|Organization|5.0.0|CareTeam|5.0.0|PractitionerRole|5.0.0|Specimen|5.0.0)
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0)
 </t>
   </si>
   <si>
@@ -867,7 +867,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)</t>
+Reference(Patient|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -978,7 +978,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|5.0.0</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -993,7 +993,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device|CareTeam|HealthcareService)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0|Device|5.0.0|CareTeam|5.0.0|HealthcareService|5.0.0)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|5.0.0)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>Procedure.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0|Observation|5.0.0|Procedure|5.0.0|DiagnosticReport|5.0.0|DocumentReference|5.0.0)
 </t>
   </si>
   <si>
@@ -1098,7 +1098,7 @@
     <t>A code that identifies the reason a procedure is  required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|5.0.0</t>
   </si>
   <si>
     <t>Event.reason</t>
@@ -1128,7 +1128,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1152,7 +1152,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1161,7 +1161,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
+    <t xml:space="preserve">Reference(DiagnosticReport|5.0.0|DocumentReference|5.0.0|Composition|5.0.0)
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0)
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1214,7 +1214,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1278,7 +1278,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action|5.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1287,7 +1287,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|5.0.0)
 </t>
   </si>
   <si>
@@ -1303,7 +1303,7 @@
     <t>Procedure.used</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Device|Medication|Substance|BiologicallyDerivedProduct)
+    <t xml:space="preserve">CodeableReference(Device|5.0.0|Medication|5.0.0|Substance|5.0.0|BiologicallyDerivedProduct|5.0.0)
 </t>
   </si>
   <si>
@@ -1322,7 +1322,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|5.0.0</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1331,7 +1331,7 @@
     <t>Procedure.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -704,7 +704,19 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/carotid-imaging-modality-vs</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="58920005"/&gt;
+    &lt;display value="Angiography of carotid artery (procedure)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>A code to identify a specific procedure .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|5.0.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -3919,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>20</v>
@@ -3934,11 +3946,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3971,28 +3985,28 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4011,13 +4025,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4068,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -4083,24 +4097,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4123,13 +4137,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4180,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4209,10 +4223,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4235,16 +4249,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4294,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4309,24 +4323,24 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4349,16 +4363,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4408,7 +4422,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4423,24 +4437,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4463,13 +4477,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4520,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4535,13 +4549,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4549,10 +4563,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4575,13 +4589,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4632,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4650,10 +4664,10 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4661,14 +4675,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4687,17 +4701,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4746,7 +4760,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4761,13 +4775,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4775,10 +4789,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4801,13 +4815,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4858,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4870,16 +4884,16 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4887,10 +4901,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4913,13 +4927,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4970,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4979,7 +4993,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>20</v>
@@ -4991,7 +5005,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -4999,10 +5013,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5028,10 +5042,10 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>148</v>
@@ -5084,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5113,14 +5127,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5142,10 +5156,10 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>148</v>
@@ -5200,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5243,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5258,14 +5272,14 @@
         <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5293,10 +5307,10 @@
         <v>208</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5314,7 +5328,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5329,24 +5343,24 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5369,17 +5383,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5428,7 +5442,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5437,30 +5451,30 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5483,19 +5497,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5544,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5553,7 +5567,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
@@ -5565,7 +5579,7 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5573,10 +5587,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5599,13 +5613,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5656,7 +5670,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5685,10 +5699,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5711,13 +5725,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5768,7 +5782,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5786,21 +5800,21 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5823,16 +5837,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5861,10 +5875,10 @@
         <v>208</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5882,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5897,24 +5911,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5940,13 +5954,13 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5975,10 +5989,10 @@
         <v>208</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5996,7 +6010,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6017,18 +6031,18 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6054,13 +6068,13 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6089,10 +6103,10 @@
         <v>208</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6110,7 +6124,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6145,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6139,10 +6153,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6165,16 +6179,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6224,7 +6238,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6245,7 +6259,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6253,10 +6267,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6279,16 +6293,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6317,10 +6331,10 @@
         <v>208</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6338,7 +6352,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6359,7 +6373,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6367,10 +6381,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6396,10 +6410,10 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6429,10 +6443,10 @@
         <v>208</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6450,7 +6464,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6485,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6479,10 +6493,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6505,13 +6519,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6562,7 +6576,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6577,24 +6591,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6617,13 +6631,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6674,7 +6688,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6709,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6703,10 +6717,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6729,13 +6743,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6786,7 +6800,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6795,7 +6809,7 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>20</v>
@@ -6807,7 +6821,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6815,10 +6829,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6844,10 +6858,10 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>148</v>
@@ -6900,7 +6914,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6921,7 +6935,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6929,14 +6943,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6958,10 +6972,10 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>148</v>
@@ -7016,7 +7030,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7045,10 +7059,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7074,10 +7088,10 @@
         <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7104,13 +7118,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7128,7 +7142,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7149,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7157,10 +7171,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7183,13 +7197,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7240,7 +7254,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7261,7 +7275,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7269,10 +7283,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7295,19 +7309,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7335,10 +7349,10 @@
         <v>208</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7356,7 +7370,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7391,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7385,10 +7399,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7411,13 +7425,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7468,7 +7482,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7489,7 +7503,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2749,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>196</v>
       </c>
@@ -7511,12 +7511,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN51">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
